--- a/Document/SE_HungLD_ScrapCollector/ScrapCollector_ProductBacklog.xlsx
+++ b/Document/SE_HungLD_ScrapCollector/ScrapCollector_ProductBacklog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="ProductBacklog" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="220">
   <si>
     <t>PRODUCT BACKLOG</t>
   </si>
@@ -679,6 +679,21 @@
   </si>
   <si>
     <t>Duy Dat + Hoang Nhan</t>
+  </si>
+  <si>
+    <t>Prepare silde for presentation</t>
+  </si>
+  <si>
+    <t>WORKING</t>
+  </si>
+  <si>
+    <t>Overview test the system</t>
+  </si>
+  <si>
+    <t>Need to be checked</t>
+  </si>
+  <si>
+    <t>Need to be checked and updated</t>
   </si>
 </sst>
 </file>
@@ -1031,7 +1046,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1167,9 +1182,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1183,6 +1195,42 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1205,6 +1253,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1217,71 +1278,40 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1296,6 +1326,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1305,25 +1338,13 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1546,7 +1567,7 @@
   </sheetPr>
   <dimension ref="A1:Z1015"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
@@ -1560,13 +1581,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A1" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
+      <c r="A1" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -1781,7 +1802,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A12" s="66">
+      <c r="A12" s="77">
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -1798,7 +1819,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A13" s="62"/>
+      <c r="A13" s="73"/>
       <c r="B13" s="33" t="s">
         <v>35</v>
       </c>
@@ -1813,7 +1834,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A14" s="62"/>
+      <c r="A14" s="73"/>
       <c r="B14" s="33" t="s">
         <v>39</v>
       </c>
@@ -1828,7 +1849,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A15" s="62"/>
+      <c r="A15" s="73"/>
       <c r="B15" s="33" t="s">
         <v>40</v>
       </c>
@@ -1864,7 +1885,7 @@
       <c r="Z15" s="28"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A16" s="62"/>
+      <c r="A16" s="73"/>
       <c r="B16" s="33" t="s">
         <v>41</v>
       </c>
@@ -1900,7 +1921,7 @@
       <c r="Z16" s="28"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A17" s="63"/>
+      <c r="A17" s="74"/>
       <c r="B17" s="36" t="s">
         <v>43</v>
       </c>
@@ -1915,7 +1936,7 @@
       </c>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A18" s="67">
+      <c r="A18" s="78">
         <v>12</v>
       </c>
       <c r="B18" s="10" t="s">
@@ -1932,7 +1953,7 @@
       </c>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A19" s="68"/>
+      <c r="A19" s="79"/>
       <c r="B19" s="33" t="s">
         <v>68</v>
       </c>
@@ -1947,7 +1968,7 @@
       </c>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A20" s="68"/>
+      <c r="A20" s="79"/>
       <c r="B20" s="33" t="s">
         <v>69</v>
       </c>
@@ -1962,7 +1983,7 @@
       </c>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A21" s="68"/>
+      <c r="A21" s="79"/>
       <c r="B21" s="33" t="s">
         <v>70</v>
       </c>
@@ -1977,7 +1998,7 @@
       </c>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A22" s="68"/>
+      <c r="A22" s="79"/>
       <c r="B22" s="33" t="s">
         <v>71</v>
       </c>
@@ -1992,7 +2013,7 @@
       </c>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A23" s="68"/>
+      <c r="A23" s="79"/>
       <c r="B23" s="33" t="s">
         <v>72</v>
       </c>
@@ -2007,7 +2028,7 @@
       </c>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A24" s="68"/>
+      <c r="A24" s="79"/>
       <c r="B24" s="33" t="s">
         <v>77</v>
       </c>
@@ -2022,7 +2043,7 @@
       </c>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A25" s="68"/>
+      <c r="A25" s="79"/>
       <c r="B25" s="33" t="s">
         <v>78</v>
       </c>
@@ -2037,7 +2058,7 @@
       </c>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A26" s="68"/>
+      <c r="A26" s="79"/>
       <c r="B26" s="33" t="s">
         <v>79</v>
       </c>
@@ -2052,7 +2073,7 @@
       </c>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A27" s="68"/>
+      <c r="A27" s="79"/>
       <c r="B27" s="33" t="s">
         <v>95</v>
       </c>
@@ -2067,7 +2088,7 @@
       </c>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A28" s="68"/>
+      <c r="A28" s="79"/>
       <c r="B28" s="33" t="s">
         <v>98</v>
       </c>
@@ -2077,19 +2098,19 @@
       <c r="D28" s="14">
         <v>30</v>
       </c>
-      <c r="E28" s="59" t="s">
+      <c r="E28" s="58" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A29" s="69"/>
+      <c r="A29" s="80"/>
       <c r="B29" s="15"/>
       <c r="C29" s="21"/>
       <c r="D29" s="14"/>
       <c r="E29" s="21"/>
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A30" s="66">
+      <c r="A30" s="77">
         <v>13</v>
       </c>
       <c r="B30" s="40" t="s">
@@ -2127,7 +2148,7 @@
       <c r="Z30" s="28"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A31" s="62"/>
+      <c r="A31" s="73"/>
       <c r="B31" s="15" t="s">
         <v>73</v>
       </c>
@@ -2163,7 +2184,7 @@
       <c r="Z31" s="28"/>
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A32" s="62"/>
+      <c r="A32" s="73"/>
       <c r="B32" s="15" t="s">
         <v>74</v>
       </c>
@@ -2199,7 +2220,7 @@
       <c r="Z32" s="28"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A33" s="70"/>
+      <c r="A33" s="81"/>
       <c r="B33" s="15" t="s">
         <v>76</v>
       </c>
@@ -2235,7 +2256,7 @@
       <c r="Z33" s="28"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A34" s="70"/>
+      <c r="A34" s="81"/>
       <c r="B34" s="15" t="s">
         <v>75</v>
       </c>
@@ -2271,7 +2292,7 @@
       <c r="Z34" s="28"/>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A35" s="70"/>
+      <c r="A35" s="81"/>
       <c r="B35" s="15" t="s">
         <v>80</v>
       </c>
@@ -2307,7 +2328,7 @@
       <c r="Z35" s="28"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A36" s="70"/>
+      <c r="A36" s="81"/>
       <c r="B36" s="15" t="s">
         <v>69</v>
       </c>
@@ -2343,7 +2364,7 @@
       <c r="Z36" s="28"/>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A37" s="70"/>
+      <c r="A37" s="81"/>
       <c r="B37" s="15" t="s">
         <v>81</v>
       </c>
@@ -2379,7 +2400,7 @@
       <c r="Z37" s="28"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A38" s="70"/>
+      <c r="A38" s="81"/>
       <c r="B38" s="15" t="s">
         <v>82</v>
       </c>
@@ -2415,7 +2436,7 @@
       <c r="Z38" s="28"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A39" s="70"/>
+      <c r="A39" s="81"/>
       <c r="B39" s="15" t="s">
         <v>83</v>
       </c>
@@ -2451,7 +2472,7 @@
       <c r="Z39" s="28"/>
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A40" s="70"/>
+      <c r="A40" s="81"/>
       <c r="B40" s="15" t="s">
         <v>84</v>
       </c>
@@ -2487,7 +2508,7 @@
       <c r="Z40" s="28"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A41" s="70"/>
+      <c r="A41" s="81"/>
       <c r="B41" s="15" t="s">
         <v>85</v>
       </c>
@@ -2523,7 +2544,7 @@
       <c r="Z41" s="28"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A42" s="70"/>
+      <c r="A42" s="81"/>
       <c r="B42" s="15" t="s">
         <v>93</v>
       </c>
@@ -2559,7 +2580,7 @@
       <c r="Z42" s="28"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A43" s="70"/>
+      <c r="A43" s="81"/>
       <c r="B43" s="15" t="s">
         <v>94</v>
       </c>
@@ -2595,7 +2616,7 @@
       <c r="Z43" s="28"/>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A44" s="63"/>
+      <c r="A44" s="74"/>
       <c r="B44" s="15"/>
       <c r="C44" s="21"/>
       <c r="D44" s="14"/>
@@ -2623,7 +2644,7 @@
       <c r="Z44" s="28"/>
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A45" s="66">
+      <c r="A45" s="77">
         <v>14</v>
       </c>
       <c r="B45" s="40" t="s">
@@ -2640,7 +2661,7 @@
       </c>
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A46" s="62"/>
+      <c r="A46" s="73"/>
       <c r="B46" s="15" t="s">
         <v>86</v>
       </c>
@@ -2655,7 +2676,7 @@
       </c>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A47" s="62"/>
+      <c r="A47" s="73"/>
       <c r="B47" s="15" t="s">
         <v>87</v>
       </c>
@@ -2670,7 +2691,7 @@
       </c>
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A48" s="70"/>
+      <c r="A48" s="81"/>
       <c r="B48" s="15" t="s">
         <v>88</v>
       </c>
@@ -2685,7 +2706,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A49" s="70"/>
+      <c r="A49" s="81"/>
       <c r="B49" s="15" t="s">
         <v>89</v>
       </c>
@@ -2700,7 +2721,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A50" s="70"/>
+      <c r="A50" s="81"/>
       <c r="B50" s="15" t="s">
         <v>90</v>
       </c>
@@ -2715,7 +2736,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A51" s="70"/>
+      <c r="A51" s="81"/>
       <c r="B51" s="15" t="s">
         <v>91</v>
       </c>
@@ -2730,7 +2751,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A52" s="70"/>
+      <c r="A52" s="81"/>
       <c r="B52" s="15" t="s">
         <v>76</v>
       </c>
@@ -2745,7 +2766,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A53" s="70"/>
+      <c r="A53" s="81"/>
       <c r="B53" s="15" t="s">
         <v>92</v>
       </c>
@@ -2760,7 +2781,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A54" s="70"/>
+      <c r="A54" s="81"/>
       <c r="B54" s="15" t="s">
         <v>96</v>
       </c>
@@ -2775,7 +2796,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A55" s="70"/>
+      <c r="A55" s="81"/>
       <c r="B55" s="15" t="s">
         <v>97</v>
       </c>
@@ -2790,14 +2811,14 @@
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A56" s="63"/>
+      <c r="A56" s="74"/>
       <c r="B56" s="15"/>
       <c r="C56" s="26"/>
       <c r="D56" s="14"/>
       <c r="E56" s="23"/>
     </row>
     <row r="57" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A57" s="61">
+      <c r="A57" s="72">
         <v>15</v>
       </c>
       <c r="B57" s="40" t="s">
@@ -2814,7 +2835,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A58" s="62"/>
+      <c r="A58" s="73"/>
       <c r="B58" s="15" t="s">
         <v>49</v>
       </c>
@@ -2829,7 +2850,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A59" s="62"/>
+      <c r="A59" s="73"/>
       <c r="B59" s="15" t="s">
         <v>50</v>
       </c>
@@ -2844,7 +2865,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A60" s="62"/>
+      <c r="A60" s="73"/>
       <c r="B60" s="46" t="s">
         <v>51</v>
       </c>
@@ -2859,7 +2880,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A61" s="63"/>
+      <c r="A61" s="74"/>
       <c r="B61" s="15" t="s">
         <v>67</v>
       </c>
@@ -2874,7 +2895,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A62" s="61">
+      <c r="A62" s="72">
         <v>16</v>
       </c>
       <c r="B62" s="40" t="s">
@@ -2891,7 +2912,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A63" s="62"/>
+      <c r="A63" s="73"/>
       <c r="B63" s="15" t="s">
         <v>30</v>
       </c>
@@ -2906,7 +2927,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A64" s="62"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="15" t="s">
         <v>46</v>
       </c>
@@ -2921,7 +2942,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A65" s="62"/>
+      <c r="A65" s="73"/>
       <c r="B65" s="15" t="s">
         <v>53</v>
       </c>
@@ -2936,7 +2957,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A66" s="62"/>
+      <c r="A66" s="73"/>
       <c r="B66" s="15" t="s">
         <v>54</v>
       </c>
@@ -2951,7 +2972,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A67" s="62"/>
+      <c r="A67" s="73"/>
       <c r="B67" s="15" t="s">
         <v>55</v>
       </c>
@@ -2966,7 +2987,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A68" s="63"/>
+      <c r="A68" s="74"/>
       <c r="B68" s="15" t="s">
         <v>56</v>
       </c>
@@ -2981,7 +3002,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A69" s="61">
+      <c r="A69" s="72">
         <v>17</v>
       </c>
       <c r="B69" s="53" t="s">
@@ -2998,7 +3019,7 @@
       </c>
     </row>
     <row r="70" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A70" s="62"/>
+      <c r="A70" s="73"/>
       <c r="B70" s="15" t="s">
         <v>58</v>
       </c>
@@ -3013,7 +3034,7 @@
       </c>
     </row>
     <row r="71" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A71" s="62"/>
+      <c r="A71" s="73"/>
       <c r="B71" s="15" t="s">
         <v>59</v>
       </c>
@@ -3028,7 +3049,7 @@
       </c>
     </row>
     <row r="72" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A72" s="62"/>
+      <c r="A72" s="73"/>
       <c r="B72" s="15" t="s">
         <v>60</v>
       </c>
@@ -3043,7 +3064,7 @@
       </c>
     </row>
     <row r="73" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A73" s="63"/>
+      <c r="A73" s="74"/>
       <c r="B73" s="15" t="s">
         <v>61</v>
       </c>
@@ -3058,7 +3079,7 @@
       </c>
     </row>
     <row r="74" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A74" s="61">
+      <c r="A74" s="72">
         <v>18</v>
       </c>
       <c r="B74" s="53" t="s">
@@ -3075,7 +3096,7 @@
       </c>
     </row>
     <row r="75" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A75" s="62"/>
+      <c r="A75" s="73"/>
       <c r="B75" s="15" t="s">
         <v>63</v>
       </c>
@@ -3090,7 +3111,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A76" s="62"/>
+      <c r="A76" s="73"/>
       <c r="B76" s="15" t="s">
         <v>64</v>
       </c>
@@ -3105,7 +3126,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A77" s="62"/>
+      <c r="A77" s="73"/>
       <c r="B77" s="15" t="s">
         <v>65</v>
       </c>
@@ -3120,7 +3141,7 @@
       </c>
     </row>
     <row r="78" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A78" s="63"/>
+      <c r="A78" s="74"/>
       <c r="B78" s="15" t="s">
         <v>66</v>
       </c>
@@ -4668,8 +4689,8 @@
   </sheetPr>
   <dimension ref="A1:K999"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -4679,6 +4700,7 @@
     <col min="3" max="4" width="14.44140625" customWidth="1"/>
     <col min="5" max="5" width="23.6640625" customWidth="1"/>
     <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="11" max="11" width="30.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1">
@@ -4747,7 +4769,9 @@
       <c r="J2" s="12">
         <v>0</v>
       </c>
-      <c r="K2" s="15"/>
+      <c r="K2" s="15" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1">
       <c r="A3" s="9" t="s">
@@ -4816,7 +4840,7 @@
       <c r="K4" s="15"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="82" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="24" t="s">
@@ -4849,7 +4873,7 @@
       <c r="K5" s="15"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A6" s="70"/>
+      <c r="A6" s="81"/>
       <c r="B6" s="15" t="s">
         <v>103</v>
       </c>
@@ -4880,7 +4904,7 @@
       <c r="K6" s="15"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A7" s="70"/>
+      <c r="A7" s="81"/>
       <c r="B7" s="15" t="s">
         <v>104</v>
       </c>
@@ -4908,10 +4932,12 @@
       <c r="J7" s="20">
         <v>0</v>
       </c>
-      <c r="K7" s="15"/>
+      <c r="K7" s="15" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A8" s="90"/>
+      <c r="A8" s="83"/>
       <c r="B8" s="15" t="s">
         <v>105</v>
       </c>
@@ -4939,10 +4965,12 @@
       <c r="J8" s="20">
         <v>0</v>
       </c>
-      <c r="K8" s="15"/>
+      <c r="K8" s="15" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="84" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="11" t="s">
@@ -4975,7 +5003,7 @@
       <c r="K9" s="15"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A10" s="76"/>
+      <c r="A10" s="85"/>
       <c r="B10" s="11" t="s">
         <v>36</v>
       </c>
@@ -5006,7 +5034,7 @@
       <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A11" s="76"/>
+      <c r="A11" s="85"/>
       <c r="B11" s="11" t="s">
         <v>37</v>
       </c>
@@ -5037,7 +5065,7 @@
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A12" s="77"/>
+      <c r="A12" s="86"/>
       <c r="B12" s="11" t="s">
         <v>38</v>
       </c>
@@ -6085,8 +6113,8 @@
   </sheetPr>
   <dimension ref="A1:Z1004"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -6096,6 +6124,7 @@
     <col min="3" max="4" width="14.44140625" customWidth="1"/>
     <col min="5" max="5" width="25.109375" customWidth="1"/>
     <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="11" max="11" width="22.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1">
@@ -6134,16 +6163,16 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="88" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="109" t="s">
+      <c r="C2" s="70" t="s">
         <v>207</v>
       </c>
-      <c r="D2" s="108" t="s">
+      <c r="D2" s="69" t="s">
         <v>99</v>
       </c>
       <c r="E2" s="22">
@@ -6167,14 +6196,14 @@
       <c r="K2" s="25"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A3" s="62"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="109" t="s">
+      <c r="C3" s="70" t="s">
         <v>207</v>
       </c>
-      <c r="D3" s="108" t="s">
+      <c r="D3" s="69" t="s">
         <v>99</v>
       </c>
       <c r="E3" s="22">
@@ -6198,14 +6227,14 @@
       <c r="K3" s="25"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A4" s="63"/>
+      <c r="A4" s="74"/>
       <c r="B4" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="109" t="s">
+      <c r="C4" s="70" t="s">
         <v>208</v>
       </c>
-      <c r="D4" s="108" t="s">
+      <c r="D4" s="69" t="s">
         <v>99</v>
       </c>
       <c r="E4" s="22">
@@ -6229,16 +6258,16 @@
       <c r="K4" s="25"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="92" t="s">
         <v>29</v>
       </c>
       <c r="B5" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="C5" s="109" t="s">
+      <c r="C5" s="70" t="s">
         <v>209</v>
       </c>
-      <c r="D5" s="108" t="s">
+      <c r="D5" s="69" t="s">
         <v>99</v>
       </c>
       <c r="E5" s="19">
@@ -6262,14 +6291,14 @@
       <c r="K5" s="19"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A6" s="106"/>
-      <c r="B6" s="73" t="s">
+      <c r="A6" s="93"/>
+      <c r="B6" s="89" t="s">
         <v>111</v>
       </c>
-      <c r="C6" s="109" t="s">
+      <c r="C6" s="70" t="s">
         <v>209</v>
       </c>
-      <c r="D6" s="108" t="s">
+      <c r="D6" s="69" t="s">
         <v>99</v>
       </c>
       <c r="E6" s="19">
@@ -6293,12 +6322,12 @@
       <c r="K6" s="19"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A7" s="106"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="109" t="s">
+      <c r="A7" s="93"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="70" t="s">
         <v>207</v>
       </c>
-      <c r="D7" s="108" t="s">
+      <c r="D7" s="69" t="s">
         <v>99</v>
       </c>
       <c r="E7" s="19">
@@ -6322,12 +6351,12 @@
       <c r="K7" s="19"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A8" s="106"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="109" t="s">
+      <c r="A8" s="93"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="70" t="s">
         <v>210</v>
       </c>
-      <c r="D8" s="108" t="s">
+      <c r="D8" s="69" t="s">
         <v>99</v>
       </c>
       <c r="E8" s="19">
@@ -6351,12 +6380,12 @@
       <c r="K8" s="19"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A9" s="106"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="109" t="s">
+      <c r="A9" s="93"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="70" t="s">
         <v>211</v>
       </c>
-      <c r="D9" s="108" t="s">
+      <c r="D9" s="69" t="s">
         <v>99</v>
       </c>
       <c r="E9" s="19">
@@ -6380,14 +6409,14 @@
       <c r="K9" s="19"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A10" s="106"/>
+      <c r="A10" s="93"/>
       <c r="B10" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="109" t="s">
+      <c r="C10" s="70" t="s">
         <v>207</v>
       </c>
-      <c r="D10" s="108" t="s">
+      <c r="D10" s="69" t="s">
         <v>99</v>
       </c>
       <c r="E10" s="19">
@@ -6411,14 +6440,14 @@
       <c r="K10" s="19"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A11" s="106"/>
-      <c r="B11" s="73" t="s">
+      <c r="A11" s="93"/>
+      <c r="B11" s="89" t="s">
         <v>112</v>
       </c>
-      <c r="C11" s="109" t="s">
+      <c r="C11" s="70" t="s">
         <v>207</v>
       </c>
-      <c r="D11" s="108" t="s">
+      <c r="D11" s="69" t="s">
         <v>99</v>
       </c>
       <c r="E11" s="19">
@@ -6442,12 +6471,12 @@
       <c r="K11" s="19"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A12" s="106"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="109" t="s">
+      <c r="A12" s="93"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="70" t="s">
         <v>209</v>
       </c>
-      <c r="D12" s="108" t="s">
+      <c r="D12" s="69" t="s">
         <v>99</v>
       </c>
       <c r="E12" s="19">
@@ -6471,12 +6500,12 @@
       <c r="K12" s="19"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A13" s="106"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="109" t="s">
+      <c r="A13" s="93"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="70" t="s">
         <v>210</v>
       </c>
-      <c r="D13" s="108" t="s">
+      <c r="D13" s="69" t="s">
         <v>99</v>
       </c>
       <c r="E13" s="19">
@@ -6500,14 +6529,14 @@
       <c r="K13" s="19"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A14" s="106"/>
+      <c r="A14" s="93"/>
       <c r="B14" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="C14" s="109" t="s">
+      <c r="C14" s="70" t="s">
         <v>207</v>
       </c>
-      <c r="D14" s="108" t="s">
+      <c r="D14" s="69" t="s">
         <v>99</v>
       </c>
       <c r="E14" s="19">
@@ -6530,15 +6559,15 @@
       </c>
       <c r="K14" s="19"/>
     </row>
-    <row r="15" spans="1:11" s="60" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="106"/>
-      <c r="B15" s="78" t="s">
+    <row r="15" spans="1:11" s="59" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A15" s="93"/>
+      <c r="B15" s="60" t="s">
         <v>204</v>
       </c>
-      <c r="C15" s="109" t="s">
+      <c r="C15" s="70" t="s">
         <v>209</v>
       </c>
-      <c r="D15" s="108" t="s">
+      <c r="D15" s="69" t="s">
         <v>99</v>
       </c>
       <c r="E15" s="19">
@@ -6561,15 +6590,15 @@
       </c>
       <c r="K15" s="19"/>
     </row>
-    <row r="16" spans="1:11" s="60" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A16" s="106"/>
-      <c r="B16" s="78" t="s">
+    <row r="16" spans="1:11" s="59" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A16" s="93"/>
+      <c r="B16" s="60" t="s">
         <v>205</v>
       </c>
-      <c r="C16" s="109" t="s">
+      <c r="C16" s="70" t="s">
         <v>207</v>
       </c>
-      <c r="D16" s="108" t="s">
+      <c r="D16" s="69" t="s">
         <v>99</v>
       </c>
       <c r="E16" s="19">
@@ -6592,15 +6621,15 @@
       </c>
       <c r="K16" s="19"/>
     </row>
-    <row r="17" spans="1:26" s="60" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A17" s="107"/>
-      <c r="B17" s="78" t="s">
+    <row r="17" spans="1:26" s="59" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A17" s="94"/>
+      <c r="B17" s="60" t="s">
         <v>206</v>
       </c>
-      <c r="C17" s="109" t="s">
+      <c r="C17" s="70" t="s">
         <v>207</v>
       </c>
-      <c r="D17" s="108" t="s">
+      <c r="D17" s="69" t="s">
         <v>99</v>
       </c>
       <c r="E17" s="19">
@@ -6624,16 +6653,16 @@
       <c r="K17" s="19"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A18" s="74" t="s">
+      <c r="A18" s="90" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="C18" s="110" t="s">
+      <c r="C18" s="71" t="s">
         <v>209</v>
       </c>
-      <c r="D18" s="108" t="s">
+      <c r="D18" s="69" t="s">
         <v>99</v>
       </c>
       <c r="E18" s="42">
@@ -6656,15 +6685,15 @@
       </c>
       <c r="K18" s="42"/>
     </row>
-    <row r="19" spans="1:26" s="60" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="84"/>
+    <row r="19" spans="1:26" s="59" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A19" s="91"/>
       <c r="B19" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="C19" s="110" t="s">
+      <c r="C19" s="71" t="s">
         <v>210</v>
       </c>
-      <c r="D19" s="108" t="s">
+      <c r="D19" s="69" t="s">
         <v>99</v>
       </c>
       <c r="E19" s="42">
@@ -6687,15 +6716,15 @@
       </c>
       <c r="K19" s="42"/>
     </row>
-    <row r="20" spans="1:26" s="60" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A20" s="84"/>
-      <c r="B20" s="85" t="s">
+    <row r="20" spans="1:26" s="59" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A20" s="91"/>
+      <c r="B20" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="110" t="s">
+      <c r="C20" s="71" t="s">
         <v>209</v>
       </c>
-      <c r="D20" s="108" t="s">
+      <c r="D20" s="69" t="s">
         <v>99</v>
       </c>
       <c r="E20" s="42">
@@ -6716,17 +6745,19 @@
       <c r="J20" s="22">
         <v>0</v>
       </c>
-      <c r="K20" s="42"/>
+      <c r="K20" s="15" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A21" s="63"/>
-      <c r="B21" s="86" t="s">
+      <c r="A21" s="74"/>
+      <c r="B21" s="66" t="s">
         <v>125</v>
       </c>
-      <c r="C21" s="109" t="s">
+      <c r="C21" s="70" t="s">
         <v>211</v>
       </c>
-      <c r="D21" s="108" t="s">
+      <c r="D21" s="69" t="s">
         <v>99</v>
       </c>
       <c r="E21" s="42">
@@ -6747,19 +6778,21 @@
       <c r="J21" s="22">
         <v>0</v>
       </c>
-      <c r="K21" s="42"/>
+      <c r="K21" s="15" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A22" s="71" t="s">
+      <c r="A22" s="87" t="s">
         <v>46</v>
       </c>
       <c r="B22" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="109" t="s">
+      <c r="C22" s="70" t="s">
         <v>209</v>
       </c>
-      <c r="D22" s="108" t="s">
+      <c r="D22" s="69" t="s">
         <v>99</v>
       </c>
       <c r="E22" s="19">
@@ -6783,14 +6816,14 @@
       <c r="K22" s="45"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A23" s="62"/>
+      <c r="A23" s="73"/>
       <c r="B23" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="C23" s="109" t="s">
+      <c r="C23" s="70" t="s">
         <v>207</v>
       </c>
-      <c r="D23" s="108" t="s">
+      <c r="D23" s="69" t="s">
         <v>99</v>
       </c>
       <c r="E23" s="19">
@@ -6814,14 +6847,14 @@
       <c r="K23" s="45"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A24" s="62"/>
-      <c r="B24" s="78" t="s">
+      <c r="A24" s="73"/>
+      <c r="B24" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="C24" s="109" t="s">
+      <c r="C24" s="70" t="s">
         <v>210</v>
       </c>
-      <c r="D24" s="108" t="s">
+      <c r="D24" s="69" t="s">
         <v>99</v>
       </c>
       <c r="E24" s="19">
@@ -6845,14 +6878,14 @@
       <c r="K24" s="19"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A25" s="62"/>
-      <c r="B25" s="78" t="s">
+      <c r="A25" s="73"/>
+      <c r="B25" s="60" t="s">
         <v>118</v>
       </c>
-      <c r="C25" s="109" t="s">
+      <c r="C25" s="70" t="s">
         <v>211</v>
       </c>
-      <c r="D25" s="108" t="s">
+      <c r="D25" s="69" t="s">
         <v>99</v>
       </c>
       <c r="E25" s="19">
@@ -6873,7 +6906,9 @@
       <c r="J25" s="22">
         <v>0</v>
       </c>
-      <c r="K25" s="45"/>
+      <c r="K25" s="15" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1">
       <c r="A26" s="47"/>
@@ -8504,8 +8539,8 @@
   </sheetPr>
   <dimension ref="A1:K993"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -8515,6 +8550,7 @@
     <col min="3" max="4" width="14.44140625" customWidth="1"/>
     <col min="5" max="5" width="18.109375" customWidth="1"/>
     <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="11" max="11" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1">
@@ -8556,10 +8592,10 @@
       <c r="A2" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="61" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="80" t="s">
+      <c r="C2" s="62" t="s">
         <v>100</v>
       </c>
       <c r="D2" s="25" t="s">
@@ -8586,13 +8622,13 @@
       <c r="K2" s="25"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="95" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="110" t="s">
+      <c r="C3" s="71" t="s">
         <v>209</v>
       </c>
       <c r="D3" s="25" t="s">
@@ -8616,14 +8652,16 @@
       <c r="J3" s="42">
         <v>0</v>
       </c>
-      <c r="K3" s="45"/>
+      <c r="K3" s="15" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A4" s="62"/>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="73"/>
+      <c r="B4" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="110" t="s">
+      <c r="C4" s="71" t="s">
         <v>210</v>
       </c>
       <c r="D4" s="25" t="s">
@@ -8650,11 +8688,11 @@
       <c r="K4" s="45"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="62"/>
-      <c r="B5" s="83" t="s">
+      <c r="A5" s="73"/>
+      <c r="B5" s="64" t="s">
         <v>126</v>
       </c>
-      <c r="C5" s="110" t="s">
+      <c r="C5" s="71" t="s">
         <v>211</v>
       </c>
       <c r="D5" s="25" t="s">
@@ -8681,11 +8719,11 @@
       <c r="K5" s="45"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A6" s="62"/>
-      <c r="B6" s="83" t="s">
+      <c r="A6" s="73"/>
+      <c r="B6" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="C6" s="110" t="s">
+      <c r="C6" s="71" t="s">
         <v>209</v>
       </c>
       <c r="D6" s="25" t="s">
@@ -8712,11 +8750,11 @@
       <c r="K6" s="45"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A7" s="62"/>
-      <c r="B7" s="78" t="s">
+      <c r="A7" s="73"/>
+      <c r="B7" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="C7" s="109" t="s">
+      <c r="C7" s="70" t="s">
         <v>210</v>
       </c>
       <c r="D7" s="25" t="s">
@@ -8743,11 +8781,11 @@
       <c r="K7" s="45"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A8" s="62"/>
-      <c r="B8" s="78" t="s">
+      <c r="A8" s="73"/>
+      <c r="B8" s="60" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="109" t="s">
+      <c r="C8" s="70" t="s">
         <v>211</v>
       </c>
       <c r="D8" s="25" t="s">
@@ -8774,11 +8812,11 @@
       <c r="K8" s="45"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A9" s="62"/>
-      <c r="B9" s="78" t="s">
+      <c r="A9" s="73"/>
+      <c r="B9" s="60" t="s">
         <v>130</v>
       </c>
-      <c r="C9" s="109" t="s">
+      <c r="C9" s="70" t="s">
         <v>207</v>
       </c>
       <c r="D9" s="25" t="s">
@@ -8805,11 +8843,11 @@
       <c r="K9" s="45"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A10" s="62"/>
-      <c r="B10" s="83" t="s">
+      <c r="A10" s="73"/>
+      <c r="B10" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="C10" s="109" t="s">
+      <c r="C10" s="70" t="s">
         <v>207</v>
       </c>
       <c r="D10" s="25" t="s">
@@ -8833,14 +8871,14 @@
       <c r="J10" s="42">
         <v>0</v>
       </c>
-      <c r="K10" s="56"/>
+      <c r="K10" s="55"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A11" s="62"/>
-      <c r="B11" s="83" t="s">
+      <c r="A11" s="73"/>
+      <c r="B11" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="C11" s="109" t="s">
+      <c r="C11" s="70" t="s">
         <v>209</v>
       </c>
       <c r="D11" s="25" t="s">
@@ -8867,11 +8905,11 @@
       <c r="K11" s="45"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A12" s="63"/>
-      <c r="B12" s="83" t="s">
+      <c r="A12" s="74"/>
+      <c r="B12" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="C12" s="109" t="s">
+      <c r="C12" s="70" t="s">
         <v>210</v>
       </c>
       <c r="D12" s="25" t="s">
@@ -8897,14 +8935,14 @@
       </c>
       <c r="K12" s="45"/>
     </row>
-    <row r="13" spans="1:11" s="60" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A13" s="89" t="s">
+    <row r="13" spans="1:11" s="59" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A13" s="96" t="s">
         <v>144</v>
       </c>
-      <c r="B13" s="83" t="s">
+      <c r="B13" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="C13" s="109" t="s">
+      <c r="C13" s="70" t="s">
         <v>207</v>
       </c>
       <c r="D13" s="25" t="s">
@@ -8928,14 +8966,16 @@
       <c r="J13" s="42">
         <v>0</v>
       </c>
-      <c r="K13" s="45"/>
-    </row>
-    <row r="14" spans="1:11" s="60" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A14" s="90"/>
-      <c r="B14" s="83" t="s">
+      <c r="K13" s="15" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="59" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A14" s="83"/>
+      <c r="B14" s="64" t="s">
         <v>146</v>
       </c>
-      <c r="C14" s="109" t="s">
+      <c r="C14" s="70" t="s">
         <v>211</v>
       </c>
       <c r="D14" s="25" t="s">
@@ -8959,16 +8999,18 @@
       <c r="J14" s="42">
         <v>0</v>
       </c>
-      <c r="K14" s="45"/>
-    </row>
-    <row r="15" spans="1:11" s="60" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="91" t="s">
+      <c r="K14" s="15" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="59" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A15" s="97" t="s">
         <v>147</v>
       </c>
-      <c r="B15" s="83" t="s">
+      <c r="B15" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="C15" s="109" t="s">
+      <c r="C15" s="70" t="s">
         <v>207</v>
       </c>
       <c r="D15" s="25" t="s">
@@ -8994,12 +9036,12 @@
       </c>
       <c r="K15" s="45"/>
     </row>
-    <row r="16" spans="1:11" s="60" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A16" s="88"/>
-      <c r="B16" s="83" t="s">
+    <row r="16" spans="1:11" s="59" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A16" s="98"/>
+      <c r="B16" s="64" t="s">
         <v>149</v>
       </c>
-      <c r="C16" s="109" t="s">
+      <c r="C16" s="70" t="s">
         <v>207</v>
       </c>
       <c r="D16" s="25" t="s">
@@ -9026,13 +9068,13 @@
       <c r="K16" s="45"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A17" s="81" t="s">
+      <c r="A17" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="87" t="s">
+      <c r="B17" s="67" t="s">
         <v>135</v>
       </c>
-      <c r="C17" s="109" t="s">
+      <c r="C17" s="70" t="s">
         <v>209</v>
       </c>
       <c r="D17" s="25" t="s">
@@ -9059,11 +9101,11 @@
       <c r="K17" s="45"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A18" s="62"/>
-      <c r="B18" s="87" t="s">
+      <c r="A18" s="73"/>
+      <c r="B18" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="C18" s="109" t="s">
+      <c r="C18" s="70" t="s">
         <v>210</v>
       </c>
       <c r="D18" s="25" t="s">
@@ -9090,11 +9132,11 @@
       <c r="K18" s="45"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A19" s="62"/>
-      <c r="B19" s="83" t="s">
+      <c r="A19" s="73"/>
+      <c r="B19" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="109" t="s">
+      <c r="C19" s="70" t="s">
         <v>209</v>
       </c>
       <c r="D19" s="25" t="s">
@@ -9121,11 +9163,11 @@
       <c r="K19" s="45"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A20" s="62"/>
-      <c r="B20" s="83" t="s">
+      <c r="A20" s="73"/>
+      <c r="B20" s="64" t="s">
         <v>138</v>
       </c>
-      <c r="C20" s="109" t="s">
+      <c r="C20" s="70" t="s">
         <v>211</v>
       </c>
       <c r="D20" s="25" t="s">
@@ -9152,11 +9194,11 @@
       <c r="K20" s="45"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A21" s="62"/>
-      <c r="B21" s="83" t="s">
+      <c r="A21" s="73"/>
+      <c r="B21" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="C21" s="109" t="s">
+      <c r="C21" s="70" t="s">
         <v>209</v>
       </c>
       <c r="D21" s="25" t="s">
@@ -9183,11 +9225,11 @@
       <c r="K21" s="45"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A22" s="62"/>
-      <c r="B22" s="83" t="s">
+      <c r="A22" s="73"/>
+      <c r="B22" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="C22" s="109" t="s">
+      <c r="C22" s="70" t="s">
         <v>210</v>
       </c>
       <c r="D22" s="25" t="s">
@@ -9214,11 +9256,11 @@
       <c r="K22" s="45"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A23" s="62"/>
-      <c r="B23" s="83" t="s">
+      <c r="A23" s="73"/>
+      <c r="B23" s="64" t="s">
         <v>141</v>
       </c>
-      <c r="C23" s="109" t="s">
+      <c r="C23" s="70" t="s">
         <v>207</v>
       </c>
       <c r="D23" s="25" t="s">
@@ -9245,11 +9287,11 @@
       <c r="K23" s="45"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A24" s="62"/>
-      <c r="B24" s="83" t="s">
+      <c r="A24" s="73"/>
+      <c r="B24" s="64" t="s">
         <v>142</v>
       </c>
-      <c r="C24" s="109" t="s">
+      <c r="C24" s="70" t="s">
         <v>209</v>
       </c>
       <c r="D24" s="25" t="s">
@@ -9276,11 +9318,11 @@
       <c r="K24" s="45"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A25" s="62"/>
-      <c r="B25" s="83" t="s">
+      <c r="A25" s="73"/>
+      <c r="B25" s="64" t="s">
         <v>143</v>
       </c>
-      <c r="C25" s="109" t="s">
+      <c r="C25" s="70" t="s">
         <v>209</v>
       </c>
       <c r="D25" s="25" t="s">
@@ -9304,16 +9346,18 @@
       <c r="J25" s="42">
         <v>0</v>
       </c>
-      <c r="K25" s="45"/>
+      <c r="K25" s="15" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A26" s="82" t="s">
+      <c r="A26" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="B26" s="83" t="s">
+      <c r="B26" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="C26" s="109" t="s">
+      <c r="C26" s="70" t="s">
         <v>210</v>
       </c>
       <c r="D26" s="25" t="s">
@@ -9340,19 +9384,19 @@
       <c r="K26" s="45"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A27" s="57"/>
-      <c r="B27" s="57" t="s">
+      <c r="A27" s="56"/>
+      <c r="B27" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="58"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="57"/>
     </row>
     <row r="28" spans="1:11" ht="15.75" customHeight="1">
       <c r="A28" s="52"/>
@@ -10936,8 +10980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -10985,13 +11029,13 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.6">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="61" t="s">
         <v>150</v>
       </c>
-      <c r="C2" s="80" t="s">
+      <c r="C2" s="62" t="s">
         <v>100</v>
       </c>
       <c r="D2" s="25" t="s">
@@ -11018,11 +11062,11 @@
       <c r="K2" s="25"/>
     </row>
     <row r="3" spans="1:11" ht="15.6">
-      <c r="A3" s="95"/>
-      <c r="B3" s="79" t="s">
+      <c r="A3" s="102"/>
+      <c r="B3" s="61" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="62" t="s">
         <v>208</v>
       </c>
       <c r="D3" s="25" t="s">
@@ -11049,13 +11093,13 @@
       <c r="K3" s="25"/>
     </row>
     <row r="4" spans="1:11" ht="15.6">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="96" t="s">
         <v>152</v>
       </c>
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="C4" s="110" t="s">
+      <c r="C4" s="71" t="s">
         <v>209</v>
       </c>
       <c r="D4" s="25" t="s">
@@ -11082,11 +11126,11 @@
       <c r="K4" s="45"/>
     </row>
     <row r="5" spans="1:11" ht="15.6">
-      <c r="A5" s="96"/>
-      <c r="B5" s="83" t="s">
+      <c r="A5" s="99"/>
+      <c r="B5" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="C5" s="110" t="s">
+      <c r="C5" s="71" t="s">
         <v>211</v>
       </c>
       <c r="D5" s="25" t="s">
@@ -11113,11 +11157,11 @@
       <c r="K5" s="45"/>
     </row>
     <row r="6" spans="1:11" ht="15.6">
-      <c r="A6" s="96"/>
-      <c r="B6" s="83" t="s">
+      <c r="A6" s="99"/>
+      <c r="B6" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="C6" s="110" t="s">
+      <c r="C6" s="71" t="s">
         <v>210</v>
       </c>
       <c r="D6" s="25" t="s">
@@ -11144,11 +11188,11 @@
       <c r="K6" s="45"/>
     </row>
     <row r="7" spans="1:11" ht="15.6">
-      <c r="A7" s="96"/>
-      <c r="B7" s="83" t="s">
+      <c r="A7" s="99"/>
+      <c r="B7" s="64" t="s">
         <v>155</v>
       </c>
-      <c r="C7" s="110" t="s">
+      <c r="C7" s="71" t="s">
         <v>209</v>
       </c>
       <c r="D7" s="25" t="s">
@@ -11175,11 +11219,11 @@
       <c r="K7" s="45"/>
     </row>
     <row r="8" spans="1:11" ht="15.6">
-      <c r="A8" s="96"/>
-      <c r="B8" s="78" t="s">
+      <c r="A8" s="99"/>
+      <c r="B8" s="60" t="s">
         <v>156</v>
       </c>
-      <c r="C8" s="109" t="s">
+      <c r="C8" s="70" t="s">
         <v>209</v>
       </c>
       <c r="D8" s="25" t="s">
@@ -11206,11 +11250,11 @@
       <c r="K8" s="45"/>
     </row>
     <row r="9" spans="1:11" ht="15.6">
-      <c r="A9" s="96"/>
-      <c r="B9" s="78" t="s">
+      <c r="A9" s="99"/>
+      <c r="B9" s="60" t="s">
         <v>157</v>
       </c>
-      <c r="C9" s="109" t="s">
+      <c r="C9" s="70" t="s">
         <v>210</v>
       </c>
       <c r="D9" s="25" t="s">
@@ -11237,11 +11281,11 @@
       <c r="K9" s="45"/>
     </row>
     <row r="10" spans="1:11" ht="15.6">
-      <c r="A10" s="96"/>
-      <c r="B10" s="78" t="s">
+      <c r="A10" s="99"/>
+      <c r="B10" s="60" t="s">
         <v>158</v>
       </c>
-      <c r="C10" s="109" t="s">
+      <c r="C10" s="70" t="s">
         <v>210</v>
       </c>
       <c r="D10" s="25" t="s">
@@ -11268,11 +11312,11 @@
       <c r="K10" s="45"/>
     </row>
     <row r="11" spans="1:11" ht="15.6">
-      <c r="A11" s="97"/>
-      <c r="B11" s="83" t="s">
+      <c r="A11" s="100"/>
+      <c r="B11" s="64" t="s">
         <v>159</v>
       </c>
-      <c r="C11" s="109" t="s">
+      <c r="C11" s="70" t="s">
         <v>209</v>
       </c>
       <c r="D11" s="25" t="s">
@@ -11296,16 +11340,16 @@
       <c r="J11" s="22">
         <v>0</v>
       </c>
-      <c r="K11" s="56"/>
+      <c r="K11" s="55"/>
     </row>
     <row r="12" spans="1:11" ht="15.6">
-      <c r="A12" s="89" t="s">
+      <c r="A12" s="96" t="s">
         <v>144</v>
       </c>
-      <c r="B12" s="83" t="s">
+      <c r="B12" s="64" t="s">
         <v>161</v>
       </c>
-      <c r="C12" s="109" t="s">
+      <c r="C12" s="70" t="s">
         <v>207</v>
       </c>
       <c r="D12" s="25" t="s">
@@ -11332,11 +11376,11 @@
       <c r="K12" s="45"/>
     </row>
     <row r="13" spans="1:11" ht="15.6">
-      <c r="A13" s="90"/>
-      <c r="B13" s="83" t="s">
+      <c r="A13" s="83"/>
+      <c r="B13" s="64" t="s">
         <v>160</v>
       </c>
-      <c r="C13" s="109" t="s">
+      <c r="C13" s="70" t="s">
         <v>207</v>
       </c>
       <c r="D13" s="25" t="s">
@@ -11363,13 +11407,13 @@
       <c r="K13" s="45"/>
     </row>
     <row r="14" spans="1:11" ht="15.6">
-      <c r="A14" s="98" t="s">
+      <c r="A14" s="103" t="s">
         <v>162</v>
       </c>
-      <c r="B14" s="83" t="s">
+      <c r="B14" s="64" t="s">
         <v>163</v>
       </c>
-      <c r="C14" s="109" t="s">
+      <c r="C14" s="70" t="s">
         <v>209</v>
       </c>
       <c r="D14" s="25" t="s">
@@ -11396,11 +11440,11 @@
       <c r="K14" s="45"/>
     </row>
     <row r="15" spans="1:11" ht="15.6">
-      <c r="A15" s="96"/>
-      <c r="B15" s="83" t="s">
+      <c r="A15" s="99"/>
+      <c r="B15" s="64" t="s">
         <v>164</v>
       </c>
-      <c r="C15" s="109" t="s">
+      <c r="C15" s="70" t="s">
         <v>210</v>
       </c>
       <c r="D15" s="25" t="s">
@@ -11427,11 +11471,11 @@
       <c r="K15" s="45"/>
     </row>
     <row r="16" spans="1:11" ht="15.6">
-      <c r="A16" s="97"/>
-      <c r="B16" s="83" t="s">
+      <c r="A16" s="100"/>
+      <c r="B16" s="64" t="s">
         <v>165</v>
       </c>
-      <c r="C16" s="109" t="s">
+      <c r="C16" s="70" t="s">
         <v>212</v>
       </c>
       <c r="D16" s="25" t="s">
@@ -11455,16 +11499,18 @@
       <c r="J16" s="22">
         <v>0</v>
       </c>
-      <c r="K16" s="45"/>
+      <c r="K16" s="15" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="17" spans="1:11" ht="15.6">
-      <c r="A17" s="81" t="s">
+      <c r="A17" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="87" t="s">
+      <c r="B17" s="67" t="s">
         <v>166</v>
       </c>
-      <c r="C17" s="109" t="s">
+      <c r="C17" s="70" t="s">
         <v>207</v>
       </c>
       <c r="D17" s="25" t="s">
@@ -11491,11 +11537,11 @@
       <c r="K17" s="45"/>
     </row>
     <row r="18" spans="1:11" ht="15.6">
-      <c r="A18" s="62"/>
-      <c r="B18" s="87" t="s">
+      <c r="A18" s="73"/>
+      <c r="B18" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="C18" s="109" t="s">
+      <c r="C18" s="70" t="s">
         <v>207</v>
       </c>
       <c r="D18" s="25" t="s">
@@ -11522,11 +11568,11 @@
       <c r="K18" s="45"/>
     </row>
     <row r="19" spans="1:11" ht="15.6">
-      <c r="A19" s="62"/>
-      <c r="B19" s="83" t="s">
+      <c r="A19" s="73"/>
+      <c r="B19" s="64" t="s">
         <v>167</v>
       </c>
-      <c r="C19" s="109" t="s">
+      <c r="C19" s="70" t="s">
         <v>211</v>
       </c>
       <c r="D19" s="25" t="s">
@@ -11553,11 +11599,11 @@
       <c r="K19" s="45"/>
     </row>
     <row r="20" spans="1:11" ht="15.6">
-      <c r="A20" s="62"/>
-      <c r="B20" s="83" t="s">
+      <c r="A20" s="73"/>
+      <c r="B20" s="64" t="s">
         <v>168</v>
       </c>
-      <c r="C20" s="109" t="s">
+      <c r="C20" s="70" t="s">
         <v>210</v>
       </c>
       <c r="D20" s="25" t="s">
@@ -11583,12 +11629,12 @@
       </c>
       <c r="K20" s="45"/>
     </row>
-    <row r="21" spans="1:11" s="60" customFormat="1" ht="15.6">
-      <c r="A21" s="62"/>
-      <c r="B21" s="83" t="s">
+    <row r="21" spans="1:11" s="59" customFormat="1" ht="15.6">
+      <c r="A21" s="73"/>
+      <c r="B21" s="64" t="s">
         <v>169</v>
       </c>
-      <c r="C21" s="109" t="s">
+      <c r="C21" s="70" t="s">
         <v>209</v>
       </c>
       <c r="D21" s="25" t="s">
@@ -11615,11 +11661,11 @@
       <c r="K21" s="45"/>
     </row>
     <row r="22" spans="1:11" ht="15.6">
-      <c r="A22" s="62"/>
-      <c r="B22" s="83" t="s">
+      <c r="A22" s="73"/>
+      <c r="B22" s="64" t="s">
         <v>170</v>
       </c>
-      <c r="C22" s="109" t="s">
+      <c r="C22" s="70" t="s">
         <v>210</v>
       </c>
       <c r="D22" s="25" t="s">
@@ -11646,11 +11692,11 @@
       <c r="K22" s="45"/>
     </row>
     <row r="23" spans="1:11" ht="15.6">
-      <c r="A23" s="62"/>
-      <c r="B23" s="83" t="s">
+      <c r="A23" s="73"/>
+      <c r="B23" s="64" t="s">
         <v>171</v>
       </c>
-      <c r="C23" s="109" t="s">
+      <c r="C23" s="70" t="s">
         <v>211</v>
       </c>
       <c r="D23" s="25" t="s">
@@ -11677,11 +11723,11 @@
       <c r="K23" s="45"/>
     </row>
     <row r="24" spans="1:11" ht="15.6">
-      <c r="A24" s="62"/>
-      <c r="B24" s="83" t="s">
+      <c r="A24" s="73"/>
+      <c r="B24" s="64" t="s">
         <v>172</v>
       </c>
-      <c r="C24" s="109" t="s">
+      <c r="C24" s="70" t="s">
         <v>209</v>
       </c>
       <c r="D24" s="25" t="s">
@@ -11707,12 +11753,12 @@
       </c>
       <c r="K24" s="45"/>
     </row>
-    <row r="25" spans="1:11" s="60" customFormat="1" ht="15.6">
-      <c r="A25" s="70"/>
-      <c r="B25" s="83" t="s">
+    <row r="25" spans="1:11" s="59" customFormat="1" ht="15.6">
+      <c r="A25" s="81"/>
+      <c r="B25" s="64" t="s">
         <v>174</v>
       </c>
-      <c r="C25" s="109" t="s">
+      <c r="C25" s="70" t="s">
         <v>210</v>
       </c>
       <c r="D25" s="25" t="s">
@@ -11736,14 +11782,16 @@
       <c r="J25" s="19">
         <v>0</v>
       </c>
-      <c r="K25" s="45"/>
+      <c r="K25" s="15" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="26" spans="1:11" ht="15.6">
-      <c r="A26" s="62"/>
-      <c r="B26" s="83" t="s">
+      <c r="A26" s="73"/>
+      <c r="B26" s="64" t="s">
         <v>173</v>
       </c>
-      <c r="C26" s="109" t="s">
+      <c r="C26" s="70" t="s">
         <v>207</v>
       </c>
       <c r="D26" s="25" t="s">
@@ -11770,21 +11818,21 @@
       <c r="K26" s="45"/>
     </row>
     <row r="27" spans="1:11" ht="15.6">
-      <c r="A27" s="57"/>
-      <c r="B27" s="57" t="s">
+      <c r="A27" s="56"/>
+      <c r="B27" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="58"/>
-    </row>
-    <row r="35" s="60" customFormat="1"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="57"/>
+    </row>
+    <row r="35" s="59" customFormat="1"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A4:A11"/>
@@ -11802,7 +11850,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -11851,13 +11899,13 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.6">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="61" t="s">
         <v>175</v>
       </c>
-      <c r="C2" s="80" t="s">
+      <c r="C2" s="62" t="s">
         <v>100</v>
       </c>
       <c r="D2" s="25" t="s">
@@ -11884,13 +11932,13 @@
       <c r="K2" s="25"/>
     </row>
     <row r="3" spans="1:11" ht="15.6">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="95" t="s">
         <v>152</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="64" t="s">
         <v>181</v>
       </c>
-      <c r="C3" s="110" t="s">
+      <c r="C3" s="71" t="s">
         <v>100</v>
       </c>
       <c r="D3" s="25" t="s">
@@ -11917,11 +11965,11 @@
       <c r="K3" s="45"/>
     </row>
     <row r="4" spans="1:11" ht="15.6">
-      <c r="A4" s="62"/>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="73"/>
+      <c r="B4" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="110" t="s">
+      <c r="C4" s="71" t="s">
         <v>100</v>
       </c>
       <c r="D4" s="25" t="s">
@@ -11948,11 +11996,11 @@
       <c r="K4" s="45"/>
     </row>
     <row r="5" spans="1:11" ht="15.6">
-      <c r="A5" s="62"/>
-      <c r="B5" s="83" t="s">
+      <c r="A5" s="73"/>
+      <c r="B5" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="110" t="s">
+      <c r="C5" s="71" t="s">
         <v>106</v>
       </c>
       <c r="D5" s="25" t="s">
@@ -11979,11 +12027,11 @@
       <c r="K5" s="45"/>
     </row>
     <row r="6" spans="1:11" ht="15.6">
-      <c r="A6" s="62"/>
-      <c r="B6" s="83" t="s">
+      <c r="A6" s="73"/>
+      <c r="B6" s="64" t="s">
         <v>182</v>
       </c>
-      <c r="C6" s="110" t="s">
+      <c r="C6" s="71" t="s">
         <v>101</v>
       </c>
       <c r="D6" s="25" t="s">
@@ -12007,14 +12055,16 @@
       <c r="J6" s="22">
         <v>0</v>
       </c>
-      <c r="K6" s="45"/>
+      <c r="K6" s="15" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="15.6">
-      <c r="A7" s="62"/>
-      <c r="B7" s="78" t="s">
+      <c r="A7" s="73"/>
+      <c r="B7" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="109" t="s">
+      <c r="C7" s="70" t="s">
         <v>107</v>
       </c>
       <c r="D7" s="25" t="s">
@@ -12038,14 +12088,16 @@
       <c r="J7" s="22">
         <v>0</v>
       </c>
-      <c r="K7" s="45"/>
+      <c r="K7" s="15" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="15.6">
-      <c r="A8" s="62"/>
-      <c r="B8" s="78" t="s">
+      <c r="A8" s="73"/>
+      <c r="B8" s="60" t="s">
         <v>183</v>
       </c>
-      <c r="C8" s="109" t="s">
+      <c r="C8" s="70" t="s">
         <v>106</v>
       </c>
       <c r="D8" s="25" t="s">
@@ -12072,13 +12124,13 @@
       <c r="K8" s="45"/>
     </row>
     <row r="9" spans="1:11" ht="15.6">
-      <c r="A9" s="89" t="s">
+      <c r="A9" s="96" t="s">
         <v>176</v>
       </c>
-      <c r="B9" s="83" t="s">
+      <c r="B9" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="C9" s="109" t="s">
+      <c r="C9" s="70" t="s">
         <v>101</v>
       </c>
       <c r="D9" s="25" t="s">
@@ -12105,11 +12157,11 @@
       <c r="K9" s="45"/>
     </row>
     <row r="10" spans="1:11" ht="15.6">
-      <c r="A10" s="96"/>
-      <c r="B10" s="99" t="s">
+      <c r="A10" s="99"/>
+      <c r="B10" s="104" t="s">
         <v>213</v>
       </c>
-      <c r="C10" s="109" t="s">
+      <c r="C10" s="70" t="s">
         <v>106</v>
       </c>
       <c r="D10" s="25" t="s">
@@ -12135,10 +12187,10 @@
       </c>
       <c r="K10" s="45"/>
     </row>
-    <row r="11" spans="1:11" s="60" customFormat="1" ht="15.6">
-      <c r="A11" s="111"/>
-      <c r="B11" s="101"/>
-      <c r="C11" s="109" t="s">
+    <row r="11" spans="1:11" s="59" customFormat="1" ht="15.6">
+      <c r="A11" s="107"/>
+      <c r="B11" s="106"/>
+      <c r="C11" s="70" t="s">
         <v>107</v>
       </c>
       <c r="D11" s="25" t="s">
@@ -12165,13 +12217,13 @@
       <c r="K11" s="45"/>
     </row>
     <row r="12" spans="1:11" ht="14.4" customHeight="1">
-      <c r="A12" s="98" t="s">
+      <c r="A12" s="103" t="s">
         <v>177</v>
       </c>
-      <c r="B12" s="83" t="s">
+      <c r="B12" s="64" t="s">
         <v>178</v>
       </c>
-      <c r="C12" s="109" t="s">
+      <c r="C12" s="70" t="s">
         <v>106</v>
       </c>
       <c r="D12" s="25" t="s">
@@ -12198,11 +12250,11 @@
       <c r="K12" s="45"/>
     </row>
     <row r="13" spans="1:11" ht="15.6">
-      <c r="A13" s="96"/>
-      <c r="B13" s="83" t="s">
+      <c r="A13" s="99"/>
+      <c r="B13" s="64" t="s">
         <v>179</v>
       </c>
-      <c r="C13" s="109" t="s">
+      <c r="C13" s="70" t="s">
         <v>100</v>
       </c>
       <c r="D13" s="25" t="s">
@@ -12228,12 +12280,12 @@
       </c>
       <c r="K13" s="45"/>
     </row>
-    <row r="14" spans="1:11" s="60" customFormat="1" ht="15.6">
-      <c r="A14" s="97"/>
-      <c r="B14" s="83" t="s">
+    <row r="14" spans="1:11" s="59" customFormat="1" ht="15.6">
+      <c r="A14" s="100"/>
+      <c r="B14" s="64" t="s">
         <v>180</v>
       </c>
-      <c r="C14" s="109" t="s">
+      <c r="C14" s="70" t="s">
         <v>214</v>
       </c>
       <c r="D14" s="25" t="s">
@@ -12260,13 +12312,13 @@
       <c r="K14" s="45"/>
     </row>
     <row r="15" spans="1:11" ht="15.6">
-      <c r="A15" s="81" t="s">
+      <c r="A15" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="87" t="s">
+      <c r="B15" s="67" t="s">
         <v>184</v>
       </c>
-      <c r="C15" s="109" t="s">
+      <c r="C15" s="70" t="s">
         <v>101</v>
       </c>
       <c r="D15" s="25" t="s">
@@ -12293,11 +12345,11 @@
       <c r="K15" s="45"/>
     </row>
     <row r="16" spans="1:11" ht="15.6">
-      <c r="A16" s="62"/>
-      <c r="B16" s="87" t="s">
+      <c r="A16" s="73"/>
+      <c r="B16" s="67" t="s">
         <v>185</v>
       </c>
-      <c r="C16" s="109" t="s">
+      <c r="C16" s="70" t="s">
         <v>101</v>
       </c>
       <c r="D16" s="25" t="s">
@@ -12324,11 +12376,11 @@
       <c r="K16" s="45"/>
     </row>
     <row r="17" spans="1:11" ht="15.6">
-      <c r="A17" s="62"/>
-      <c r="B17" s="83" t="s">
+      <c r="A17" s="73"/>
+      <c r="B17" s="64" t="s">
         <v>186</v>
       </c>
-      <c r="C17" s="109" t="s">
+      <c r="C17" s="70" t="s">
         <v>101</v>
       </c>
       <c r="D17" s="25" t="s">
@@ -12355,11 +12407,11 @@
       <c r="K17" s="45"/>
     </row>
     <row r="18" spans="1:11" ht="15.6">
-      <c r="A18" s="62"/>
-      <c r="B18" s="83" t="s">
+      <c r="A18" s="73"/>
+      <c r="B18" s="64" t="s">
         <v>187</v>
       </c>
-      <c r="C18" s="109" t="s">
+      <c r="C18" s="70" t="s">
         <v>107</v>
       </c>
       <c r="D18" s="25" t="s">
@@ -12386,11 +12438,11 @@
       <c r="K18" s="45"/>
     </row>
     <row r="19" spans="1:11" ht="15.6">
-      <c r="A19" s="62"/>
-      <c r="B19" s="99" t="s">
+      <c r="A19" s="73"/>
+      <c r="B19" s="104" t="s">
         <v>188</v>
       </c>
-      <c r="C19" s="109" t="s">
+      <c r="C19" s="70" t="s">
         <v>100</v>
       </c>
       <c r="D19" s="25" t="s">
@@ -12417,9 +12469,9 @@
       <c r="K19" s="45"/>
     </row>
     <row r="20" spans="1:11" ht="15.6">
-      <c r="A20" s="62"/>
-      <c r="B20" s="100"/>
-      <c r="C20" s="109" t="s">
+      <c r="A20" s="73"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="70" t="s">
         <v>101</v>
       </c>
       <c r="D20" s="25" t="s">
@@ -12446,9 +12498,9 @@
       <c r="K20" s="45"/>
     </row>
     <row r="21" spans="1:11" ht="15.6">
-      <c r="A21" s="62"/>
-      <c r="B21" s="100"/>
-      <c r="C21" s="109" t="s">
+      <c r="A21" s="73"/>
+      <c r="B21" s="105"/>
+      <c r="C21" s="70" t="s">
         <v>106</v>
       </c>
       <c r="D21" s="25" t="s">
@@ -12475,9 +12527,9 @@
       <c r="K21" s="45"/>
     </row>
     <row r="22" spans="1:11" ht="15.6">
-      <c r="A22" s="62"/>
-      <c r="B22" s="101"/>
-      <c r="C22" s="109" t="s">
+      <c r="A22" s="73"/>
+      <c r="B22" s="106"/>
+      <c r="C22" s="70" t="s">
         <v>107</v>
       </c>
       <c r="D22" s="25" t="s">
@@ -12504,19 +12556,19 @@
       <c r="K22" s="45"/>
     </row>
     <row r="23" spans="1:11" ht="15.6">
-      <c r="A23" s="57"/>
-      <c r="B23" s="57" t="s">
+      <c r="A23" s="56"/>
+      <c r="B23" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="58"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -12535,7 +12587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
@@ -12545,6 +12597,7 @@
     <col min="2" max="2" width="55.77734375" customWidth="1"/>
     <col min="3" max="3" width="28.21875" customWidth="1"/>
     <col min="5" max="5" width="21.77734375" customWidth="1"/>
+    <col min="11" max="11" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.6">
@@ -12586,10 +12639,10 @@
       <c r="A2" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="61" t="s">
         <v>189</v>
       </c>
-      <c r="C2" s="80" t="s">
+      <c r="C2" s="62" t="s">
         <v>100</v>
       </c>
       <c r="D2" s="25" t="s">
@@ -12616,13 +12669,13 @@
       <c r="K2" s="25"/>
     </row>
     <row r="3" spans="1:11" ht="15.6">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="95" t="s">
         <v>190</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="64" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="110" t="s">
+      <c r="C3" s="71" t="s">
         <v>106</v>
       </c>
       <c r="D3" s="25" t="s">
@@ -12649,11 +12702,11 @@
       <c r="K3" s="45"/>
     </row>
     <row r="4" spans="1:11" ht="15.6">
-      <c r="A4" s="62"/>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="73"/>
+      <c r="B4" s="64" t="s">
         <v>195</v>
       </c>
-      <c r="C4" s="110" t="s">
+      <c r="C4" s="71" t="s">
         <v>106</v>
       </c>
       <c r="D4" s="25" t="s">
@@ -12680,11 +12733,11 @@
       <c r="K4" s="45"/>
     </row>
     <row r="5" spans="1:11" ht="15.6">
-      <c r="A5" s="62"/>
-      <c r="B5" s="83" t="s">
+      <c r="A5" s="73"/>
+      <c r="B5" s="64" t="s">
         <v>196</v>
       </c>
-      <c r="C5" s="110" t="s">
+      <c r="C5" s="71" t="s">
         <v>107</v>
       </c>
       <c r="D5" s="25" t="s">
@@ -12711,11 +12764,11 @@
       <c r="K5" s="45"/>
     </row>
     <row r="6" spans="1:11" ht="15.6">
-      <c r="A6" s="62"/>
-      <c r="B6" s="83" t="s">
+      <c r="A6" s="73"/>
+      <c r="B6" s="64" t="s">
         <v>197</v>
       </c>
-      <c r="C6" s="110" t="s">
+      <c r="C6" s="71" t="s">
         <v>101</v>
       </c>
       <c r="D6" s="25" t="s">
@@ -12742,13 +12795,13 @@
       <c r="K6" s="45"/>
     </row>
     <row r="7" spans="1:11" ht="15.6">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="96" t="s">
         <v>191</v>
       </c>
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="64" t="s">
         <v>192</v>
       </c>
-      <c r="C7" s="109" t="s">
+      <c r="C7" s="70" t="s">
         <v>106</v>
       </c>
       <c r="D7" s="25" t="s">
@@ -12775,11 +12828,11 @@
       <c r="K7" s="45"/>
     </row>
     <row r="8" spans="1:11" ht="15.6">
-      <c r="A8" s="90"/>
-      <c r="B8" s="83" t="s">
+      <c r="A8" s="83"/>
+      <c r="B8" s="64" t="s">
         <v>193</v>
       </c>
-      <c r="C8" s="109" t="s">
+      <c r="C8" s="70" t="s">
         <v>100</v>
       </c>
       <c r="D8" s="25" t="s">
@@ -12806,13 +12859,13 @@
       <c r="K8" s="45"/>
     </row>
     <row r="9" spans="1:11" ht="15.6">
-      <c r="A9" s="98" t="s">
+      <c r="A9" s="103" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="102" t="s">
+      <c r="B9" s="108" t="s">
         <v>198</v>
       </c>
-      <c r="C9" s="109" t="s">
+      <c r="C9" s="70" t="s">
         <v>100</v>
       </c>
       <c r="D9" s="25" t="s">
@@ -12839,9 +12892,9 @@
       <c r="K9" s="45"/>
     </row>
     <row r="10" spans="1:11" ht="15.6">
-      <c r="A10" s="96"/>
-      <c r="B10" s="103"/>
-      <c r="C10" s="109" t="s">
+      <c r="A10" s="99"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="70" t="s">
         <v>101</v>
       </c>
       <c r="D10" s="25" t="s">
@@ -12868,9 +12921,9 @@
       <c r="K10" s="45"/>
     </row>
     <row r="11" spans="1:11" ht="15.6">
-      <c r="A11" s="96"/>
-      <c r="B11" s="103"/>
-      <c r="C11" s="109" t="s">
+      <c r="A11" s="99"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="70" t="s">
         <v>106</v>
       </c>
       <c r="D11" s="25" t="s">
@@ -12897,9 +12950,9 @@
       <c r="K11" s="45"/>
     </row>
     <row r="12" spans="1:11" ht="15.6">
-      <c r="A12" s="96"/>
-      <c r="B12" s="104"/>
-      <c r="C12" s="109" t="s">
+      <c r="A12" s="99"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="70" t="s">
         <v>107</v>
       </c>
       <c r="D12" s="25" t="s">
@@ -12926,11 +12979,11 @@
       <c r="K12" s="45"/>
     </row>
     <row r="13" spans="1:11" ht="15.6">
-      <c r="A13" s="96"/>
-      <c r="B13" s="99" t="s">
+      <c r="A13" s="99"/>
+      <c r="B13" s="104" t="s">
         <v>199</v>
       </c>
-      <c r="C13" s="109" t="s">
+      <c r="C13" s="70" t="s">
         <v>100</v>
       </c>
       <c r="D13" s="25" t="s">
@@ -12957,9 +13010,9 @@
       <c r="K13" s="45"/>
     </row>
     <row r="14" spans="1:11" ht="15.6">
-      <c r="A14" s="96"/>
-      <c r="B14" s="100"/>
-      <c r="C14" s="109" t="s">
+      <c r="A14" s="99"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="70" t="s">
         <v>101</v>
       </c>
       <c r="D14" s="25" t="s">
@@ -12986,9 +13039,9 @@
       <c r="K14" s="45"/>
     </row>
     <row r="15" spans="1:11" ht="15.6">
-      <c r="A15" s="96"/>
-      <c r="B15" s="100"/>
-      <c r="C15" s="109" t="s">
+      <c r="A15" s="99"/>
+      <c r="B15" s="105"/>
+      <c r="C15" s="70" t="s">
         <v>106</v>
       </c>
       <c r="D15" s="25" t="s">
@@ -13015,9 +13068,9 @@
       <c r="K15" s="45"/>
     </row>
     <row r="16" spans="1:11" ht="15.6">
-      <c r="A16" s="96"/>
-      <c r="B16" s="101"/>
-      <c r="C16" s="109" t="s">
+      <c r="A16" s="99"/>
+      <c r="B16" s="106"/>
+      <c r="C16" s="70" t="s">
         <v>107</v>
       </c>
       <c r="D16" s="25" t="s">
@@ -13044,11 +13097,11 @@
       <c r="K16" s="45"/>
     </row>
     <row r="17" spans="1:11" ht="15.6">
-      <c r="A17" s="96"/>
-      <c r="B17" s="99" t="s">
+      <c r="A17" s="99"/>
+      <c r="B17" s="104" t="s">
         <v>200</v>
       </c>
-      <c r="C17" s="109" t="s">
+      <c r="C17" s="70" t="s">
         <v>100</v>
       </c>
       <c r="D17" s="25" t="s">
@@ -13074,10 +13127,10 @@
       </c>
       <c r="K17" s="45"/>
     </row>
-    <row r="18" spans="1:11" s="60" customFormat="1" ht="15.6">
-      <c r="A18" s="97"/>
-      <c r="B18" s="101"/>
-      <c r="C18" s="109" t="s">
+    <row r="18" spans="1:11" s="59" customFormat="1" ht="15.6">
+      <c r="A18" s="100"/>
+      <c r="B18" s="106"/>
+      <c r="C18" s="70" t="s">
         <v>106</v>
       </c>
       <c r="D18" s="25" t="s">
@@ -13104,19 +13157,19 @@
       <c r="K18" s="45"/>
     </row>
     <row r="19" spans="1:11" ht="15.6">
-      <c r="A19" s="57"/>
-      <c r="B19" s="57" t="s">
+      <c r="A19" s="56"/>
+      <c r="B19" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -13133,10 +13186,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -13144,6 +13197,8 @@
     <col min="1" max="1" width="56.109375" customWidth="1"/>
     <col min="2" max="2" width="51.6640625" customWidth="1"/>
     <col min="3" max="3" width="30.88671875" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="18.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.6">
@@ -13185,10 +13240,10 @@
       <c r="A2" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="61" t="s">
         <v>203</v>
       </c>
-      <c r="C2" s="80" t="s">
+      <c r="C2" s="62" t="s">
         <v>100</v>
       </c>
       <c r="D2" s="25" t="s">
@@ -13215,13 +13270,21 @@
       <c r="K2" s="25"/>
     </row>
     <row r="3" spans="1:11" ht="15.6">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="95" t="s">
         <v>201</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="42"/>
+      <c r="B3" s="111" t="s">
+        <v>217</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="42">
+        <v>7</v>
+      </c>
       <c r="F3" s="42"/>
       <c r="G3" s="42"/>
       <c r="H3" s="42"/>
@@ -13230,11 +13293,17 @@
       <c r="K3" s="45"/>
     </row>
     <row r="4" spans="1:11" ht="15.6">
-      <c r="A4" s="62"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="42"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="42">
+        <v>7</v>
+      </c>
       <c r="F4" s="42"/>
       <c r="G4" s="42"/>
       <c r="H4" s="42"/>
@@ -13243,11 +13312,17 @@
       <c r="K4" s="45"/>
     </row>
     <row r="5" spans="1:11" ht="15.6">
-      <c r="A5" s="62"/>
-      <c r="B5" s="83"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="42"/>
+      <c r="A5" s="73"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="42">
+        <v>7</v>
+      </c>
       <c r="F5" s="42"/>
       <c r="G5" s="42"/>
       <c r="H5" s="42"/>
@@ -13256,11 +13331,17 @@
       <c r="K5" s="45"/>
     </row>
     <row r="6" spans="1:11" ht="15.6">
-      <c r="A6" s="62"/>
-      <c r="B6" s="83"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="42"/>
+      <c r="A6" s="73"/>
+      <c r="B6" s="113"/>
+      <c r="C6" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="42">
+        <v>7</v>
+      </c>
       <c r="F6" s="42"/>
       <c r="G6" s="42"/>
       <c r="H6" s="42"/>
@@ -13269,130 +13350,67 @@
       <c r="K6" s="45"/>
     </row>
     <row r="7" spans="1:11" ht="15.6">
-      <c r="A7" s="62"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
+      <c r="A7" s="96" t="s">
+        <v>202</v>
+      </c>
+      <c r="B7" s="64" t="s">
+        <v>215</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="E7" s="19">
+        <v>4</v>
+      </c>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
       <c r="K7" s="45"/>
     </row>
     <row r="8" spans="1:11" ht="15.6">
-      <c r="A8" s="62"/>
-      <c r="B8" s="78"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="E8" s="19">
+        <v>4</v>
+      </c>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
       <c r="K8" s="45"/>
     </row>
     <row r="9" spans="1:11" ht="15.6">
-      <c r="A9" s="62"/>
-      <c r="B9" s="78"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="45"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.6">
-      <c r="A10" s="62"/>
-      <c r="B10" s="83"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="56"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.6">
-      <c r="A11" s="62"/>
-      <c r="B11" s="83"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="45"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.6">
-      <c r="A12" s="63"/>
-      <c r="B12" s="83"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="45"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.6">
-      <c r="A13" s="89" t="s">
-        <v>202</v>
-      </c>
-      <c r="B13" s="83"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="45"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.6">
-      <c r="A14" s="90"/>
-      <c r="B14" s="83"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="45"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.6">
-      <c r="A15" s="57"/>
-      <c r="B15" s="57" t="s">
+      <c r="A9" s="56"/>
+      <c r="B9" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="A13:A14"/>
+  <mergeCells count="3">
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B3:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
